--- a/LGBM_heat.xlsx
+++ b/LGBM_heat.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ARA-SOFT\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tutorial\UBC\Machine_Learning\project\hchoi2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E42696B4-4903-4BEA-B1E5-5CDCEFB23619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768EAD51-E9F5-4819-A3CB-2A3DAD8911F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{786FF8D6-864B-4286-B712-FCE5973C9EAB}"/>
   </bookViews>
@@ -397,10 +397,14 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F13"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
